--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fedietri/GitHub/23-1-nmok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC9D1EF-B79B-1B45-BAFA-E37DA55872D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B3ABE8-93CE-3449-BB42-48CA233751B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{8F9E752D-D0F4-2F4B-82F2-3A0B3F0631FE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>week</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>exercises/e06.html</t>
+  </si>
+  <si>
+    <t>exercises/e09.html</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,6 +685,9 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
